--- a/biology/Histoire de la zoologie et de la botanique/Sanborn_Tenney/Sanborn_Tenney.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sanborn_Tenney/Sanborn_Tenney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sanborn Tenney est un naturaliste américain, né en 1827 à New Hampshire et mort en 1877.
 Il est diplômé à Amherst College et commence à enseigner à Vassar College en 1865. En 1868, il part  enseigner au Williams College. Il est l’auteur de plusieurs manuels en géographie et en histoire naturelle dont A Manuel of Zoology. Il meurt soudainement alors qu’il se préparait pour une expédition dans le Colorado.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1867 : Natural history. A manual of zoölogy for schools, colleges, and the general reader  (Scribner, Armstrong &amp; co., New York) — réédité en 1868, en 1872, en 1874.
 1866 : Natural history of animals, (American book company, New York et Cincinnati) — réédité en 1895 — version numérique consultable librement sur Archive.org.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Vassar Encyclopedia</t>
         </is>
